--- a/likeUserDirectMessage/data.xlsx
+++ b/likeUserDirectMessage/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
   <si>
     <t>post1</t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t>IMRAN B</t>
+  </si>
+  <si>
+    <t>posthttps://www.instagram.com/p/CyfxvA0yFKo/?utm_source=ig_web_copy_link&amp;igshid=MzRlODBiNWFlZA==</t>
+  </si>
+  <si>
+    <t>crazypriyalovely07</t>
+  </si>
+  <si>
+    <t>crazy_Priya_love</t>
   </si>
 </sst>
 </file>
@@ -445,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C27" sqref="A27:XFD27"/>
@@ -836,6 +845,34 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
